--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_Beissner/Ludwig_Beissner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_Beissner/Ludwig_Beissner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Beissner est un jardinier et un spécialiste de la dendrologie  allemand, né le 6 juillet 1843 à Ludwigslust et mort le 21 décembre 1927. Il est en 1887, inspecteur du jardin botanique de Bonn.
 Il s'intéresse particulièrement aux Gymnospermes et publie en 1891 un Handbuch der Nadelholzkunde, qu'il réédite en 1909, complété par un chapitre sur les Gnetaceae ; une troisième édition (1930) sera publiée après sa mort par Jost Fitschen.
